--- a/Testing/AbsensiFaceRec/output/Absen 2023-03-10 Jumat.xlsx
+++ b/Testing/AbsensiFaceRec/output/Absen 2023-03-10 Jumat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nama</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Dean</t>
-  </si>
-  <si>
-    <t>Ibuk</t>
-  </si>
-  <si>
-    <t>Ibuk2</t>
   </si>
   <si>
     <t>Person</t>
@@ -82,7 +76,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Nama"/>
     <tableColumn id="2" name="Waktu"/>
@@ -376,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,16 +399,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
